--- a/resource/file/汽车排放外检表.xlsx
+++ b/resource/file/汽车排放外检表.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC3C21-95BB-45CE-80AF-77EA34BB91AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98F529-37AB-4AC8-8927-2EBF6207D221}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="汽车排放检验外检表" sheetId="2" r:id="rId1"/>
+    <sheet name="汽车排放外检表" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">汽车排放检验外检表!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">汽车排放外检表!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <r>
       <rPr>
@@ -542,9 +542,6 @@
     <t>${factoryName}</t>
   </si>
   <si>
-    <t>${posite}</t>
-  </si>
-  <si>
     <t>${airSupethod}</t>
   </si>
   <si>
@@ -585,6 +582,12 @@
   </si>
   <si>
     <t>${SCR}</t>
+  </si>
+  <si>
+    <t>${CUIHUA_XINGHAO}</t>
+  </si>
+  <si>
+    <t>${qdxs}</t>
   </si>
 </sst>
 </file>
@@ -777,79 +780,79 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1135,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AC7963-6AF6-414C-BB71-756B25136029}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,89 +1157,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="6" t="s">
         <v>65</v>
       </c>
@@ -1245,115 +1248,115 @@
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="31"/>
+      <c r="B7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="35" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="31"/>
+      <c r="B8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="25"/>
       <c r="D8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="33"/>
+      <c r="B9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="29"/>
       <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="35" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="31"/>
+      <c r="B10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="35" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="31"/>
+      <c r="B11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="25"/>
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="35" t="s">
-        <v>79</v>
+      <c r="H11" s="27"/>
+      <c r="I11" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,11 +1369,11 @@
       <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="D12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="9" t="s">
         <v>37</v>
       </c>
@@ -1391,371 +1394,437 @@
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="21" t="s">
+      <c r="B14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="18" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="13" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="13" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:I36"/>
@@ -1772,75 +1841,11 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27500000000000002" right="0.196527777777778" top="0.39305555555555599" bottom="0.39305555555555599" header="0.31388888888888899" footer="0.31388888888888899"/>
